--- a/biology/Zoologie/Euselasia/Euselasia.xlsx
+++ b/biology/Zoologie/Euselasia/Euselasia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia est un genre de lépidoptères de la famille des Riodinidae. Ces papillons résident tous en Amérique.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Euselasia leur a été donné par Jacob Hübner. Synonyme : Eurygona Boisduval, [1836].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Euselasia leur a été donné par Jacob Hübner. Synonyme : Eurygona Boisduval, .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nombre des espèces ne sont actuellement connues que par le mâle, alors que chez certaines espèces du groupe il y a un grand dimorphisme sexuel[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nombre des espèces ne sont actuellement connues que par le mâle, alors que chez certaines espèces du groupe il y a un grand dimorphisme sexuel.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Euselasia albomaculiga Callaghan, 1999; présent en Colombie.
@@ -582,11 +600,11 @@
 Euselasia amphidecta (Godman &amp; Salvin, 1878); présent au Costa Rica et à Panama.
 Euselasia andreae Hall, Willmott &amp; Busby, 1998; présent en  Équateur.
 Euselasia angulata (Bates, 1868); présent au Mexique, au Costa Rica, au Brésil et en Colombie.
-Euselasia anica (Herrich-Schäffer, [1853]); présent au Surinam.
+Euselasia anica (Herrich-Schäffer, ); présent au Surinam.
 Euselasia arbas (Stoll, 1781); présent en Guyane, Guyana, au Surinam et en Colombie.
 Euselasia archelaus Seitz, 1916; présent en  Équateur et en Bolivie.
 Euselasia argentea (Hewitson, 1871); présent au Mexique, au Nicaragua, en Bolivie et en Colombie.
-Euselasia artos (Herrich-Schäffer, [1853]); présent au Surinam.
+Euselasia artos (Herrich-Schäffer, ); présent au Surinam.
 Euselasia athena (Hewitson, 1869); présent en Équateur.
 Euselasia attrita Seitz, 1916; présent en Bolivie.
 Euselasia aurantia (Butler &amp; Druce, 1872); présent à Panama, au Costa Rica et en Colombie.
@@ -612,7 +630,7 @@
 Euselasia cuprea Lathy, 1926; présent en Guyane.
 Euselasia cyanira Callaghan, 1997; présent au Pérou.
 Euselasia cyanofusa Hall &amp; Willmott, 1998; présent en Équateur et au Pérou.
-Euselasia dolichos Staudinger, [1887]
+Euselasia dolichos Staudinger, 
 Euselasia dorina (Hewitson, 1860); présent au Brésil.
 Euselasia fervida (Butler, 1874); présent  au Venezuela, en Colombie et au Brésil.
 Euselasia eberti Callaghan, 1999; présent au Brésil.
@@ -620,43 +638,43 @@
 Euselasia ella Seitz, 1916); présent  en Bolivie, en Colombie et au Brésil.
 Euselasia erilis Stichel, 1919; présent au Brésil.
 Euselasia ethemon (Cramer, 1776)
-Euselasia euboea (Hewitson, [1853]); présent  en Guyane, Guyana, au Surinam, au Venezuela, en Bolivie et au Brésil.
+Euselasia euboea (Hewitson, ); présent  en Guyane, Guyana, au Surinam, au Venezuela, en Bolivie et au Brésil.
 Euselasia eubule (R. Felder, 1869); présent au Mexique, au Costa Rica et à Panama.
 Euselasia eucerus (Hewitson, 1872); présent au Brésil.
 Euselasia eucrates (Hewitson, 1872); présent à Panama, au Costa Rica, en Équateur, au Venezuela et en Colombie.
-Euselasia eucritus (Hewitson, [1853]); présent en Bolivie et au Brésil.
+Euselasia eucritus (Hewitson, ); présent en Bolivie et au Brésil.
 Euselasia eugeon (Hewitson, 1856); présent  au Brésil, en Bolivie et en Argentine.
 Euselasia euhemerus (Hewitson, 1856); présent au Brésil.
 Euselasia eulione (Hewitson, 1856); présent au Brésil.
-Euselasia eumedia (Hewitson, [1853]); au Surinam et au Brésil.
-Euselasia eumenes (Hewitson, [1853]); présent au Brésil.
+Euselasia eumedia (Hewitson, ); au Surinam et au Brésil.
+Euselasia eumenes (Hewitson, ); présent au Brésil.
 Euselasia eumithres Stichel, 1919; présent au Brésil.
-Euselasia eunaeus (Hewitson, [1855]); présent au Brésil.
+Euselasia eunaeus (Hewitson, ); présent au Brésil.
 Euselasia euodias (Hewitson, 1856); présent en Guyane et au Brésil.
-Euselasia euoras (Hewitson, [1855]); présent en Guyane, en Bolivie, en Équateur, au Brésil et au Pérou.
+Euselasia euoras (Hewitson, ); présent en Guyane, en Bolivie, en Équateur, au Brésil et au Pérou.
 Euselasia eupatra Seitz, 1916; présent en Colombie.
-Euselasia euphaes (Hewitson, [1855]); présent  au Brésil et au Pérou.
-Euselasia euploea (Hewitson, [1855]); présent au Brésil
+Euselasia euphaes (Hewitson, ); présent  au Brésil et au Pérou.
+Euselasia euploea (Hewitson, ); présent au Brésil
 Euselasia euriteus (Cramer, 1777); au Surinam et au Brésil.
 Euselasia euromus (Hewitson, 1856); présent au Brésil.
 Euselasia eurymachus (Hewitson, 1872); présent en Équateur.
 Euselasia euryone (Hewitson, 1856); présent en Guyane, Guyana, au Surinam en Équateur, au Brésil, au Pérou et en Bolivie.
 Euselasia eurypus (Hewitson, 1856); présent au Brésil.
 Euselasia erythraea (Bates, 1868);  en Colombie et au Brésil.
-Euselasia eusepus (Hewitson, [1853]); au Mexique et au Brésil.
-Euselasia eutaea (Hewitson, [1853]);  au Surinam et au Brésil.
+Euselasia eusepus (Hewitson, ); au Mexique et au Brésil.
+Euselasia eutaea (Hewitson, );  au Surinam et au Brésil.
 Euselasia eustola Stichel, 1919; présent  en Guyane, au Pérou et en Bolivie.
 Euselasia eutychus (Hewitson, 1856); présent en Guyana, en Colombie et au Brésil.
 Euselasia extensa Bates, 1968; présent au Brésil.
 Euselasia fabia (Godman, 1903); présent en Équateur et au Pérou.
 Euselasia fournierae Lathy, 1924; présent au Brésil.
 Euselasia gelanor (Stoll, 1780); présent  en Guyane, au Surinam et en Bolivie.
-Euselasia gelon (Stoll, [1787]); au Surinam et en Bolivie.
+Euselasia gelon (Stoll, ); au Surinam et en Bolivie.
 Euselasia geon Seitz, 1913; présent  au Brésil, en Bolivie et en Argentine.
 Euselasia gordios Stichel, 1919; présent en Bolivie.
 Euselasia gradata Stichel, 1927; présent au Venezuela.
 Euselasia gyda (Hewitson, 1860); présent à Panama, au Costa Rica, en Colombie, au Brésil et en Bolivie.
-Euselasia hahneli Staudinger, [1887]; présent au Pérou.
+Euselasia hahneli Staudinger, ; présent au Pérou.
 Euselasia hieronymi (Salvin &amp; Godman, 1868); présent au Mexique, à Panama, au Costa Rica au Guatemala, au Nicaragua, en  Équateur.
 Euselasia hygenius (Stoll, 1787); présent au Surinam et au Brésil.
 Euselasia hypophaea (Godman &amp; Salvin, 1878); présent à Panama.
@@ -672,7 +690,7 @@
 Euselasia labdacus (Stoll, 1780); présent au Surinam, à Panama, au Costa Rica, au Venezuela et en Colombie.
 Euselasia leucon (Schaus, 1913); présent à Panama et au Costa Rica.
 Euselasia leucophryna (Schaus, 1913); présent au Costa Rica.
-Euselasia lisias (Cramer, [1777]); présent  en Guyane, Guyana, au Surinam, et en Colombie.
+Euselasia lisias (Cramer, ); présent  en Guyane, Guyana, au Surinam, et en Colombie.
 Euselasia lycaeus Staudinger, 1888; présent au Brésil.
 Euselasia lysimachus Staudinger, 1888; présent au Brésil.
 Euselasia manoa Brévignon, 1996; présent  en Guyane.
@@ -686,11 +704,11 @@
 Euselasia modesta (Bates, 1868); présent au Brésil et en Argentine.
 Euselasia murina Stichel, 1925; présent au Brésil.
 Euselasia mutator Seitz, 1916; présent au Pérou.
-Euselasia mys (Herrich-Schäffer, [1853]); présent au Surinam et au Brésil.
+Euselasia mys (Herrich-Schäffer, ); présent au Surinam et au Brésil.
 Euselasia mystica (Schaus, 1913); présent au Costa Rica.
 Euselasia nauca Hall &amp; Willmott, 1998; présent en Équateur.
 Euselasia onorata (Hewitson, 1869); présent en Équateur, au Costa Rica et en Colombie.
-Euselasia opalescens (Hewitson, [1855]); présent en Guyane, en Bolivie, en Équateur, au Brésil et au Pérou.
+Euselasia opalescens (Hewitson, ); présent en Guyane, en Bolivie, en Équateur, au Brésil et au Pérou.
 Euselasia opalina (Westwood, 1851); présent au Brésil.
 Euselasia opimia Stichel, 1919; présent en Bolivie.
 Euselasia orba Stichel, 1919; présent au Brésil.
@@ -700,16 +718,16 @@
 Euselasia pance Callaghan, 1999; présent en Colombie.
 Euselasia parca Stichel, 1919; présent au Brésil.
 Euselasia pellonia Stichel, 1919; présent  au Brésil et au Pérou.
-Euselasia pelor (Hewitson, [1853]); présent au Brésil.
+Euselasia pelor (Hewitson, ); présent au Brésil.
 Euselasia pellos Stichel, 1919; présent au Brésil.
 Euselasia perisama Hall &amp; Lamas, 2001; présent au Pérou.
-Euselasia phedica (Boisduval, [1836]); présent en Guyane.
+Euselasia phedica (Boisduval, ); présent en Guyane.
 Euselasia phelina (Druce, 1878); présent en Guyane, au Venezuela, au Brésil et au Pérou.
 Euselasia pillaca Hall &amp; Willmott, 1998; présent en Équateur.
 Euselasia portentosa Stichel, 1927; présent au Costa Rica.
 Euselasia praecipua Stichel, 1924; présent au Brésil et en Guyane.
 Euselasia praeclara (Hewitson, 1869); présent en  Équateur.
-Euselasia procula (Godman &amp; Salvin, [1885]); présent au Mexique, à Panama et au Costa Rica.
+Euselasia procula (Godman &amp; Salvin, ); présent au Mexique, à Panama et au Costa Rica.
 Euselasia pseudomys Callaghan, 1999; présent au Brésil.
 Euselasia pullata Stichel, 1927; présent au Brésil.
 Euselasia pusilla (R. Felder, 1869); présent au Mexique.
@@ -723,7 +741,7 @@
 Euselasia scotinosa Stichel, 1930; présent en Guyane et au Brésil.
 Euselasia seitzi Lathy, 1926; présent au Pérou.
 Euselasia serapis Stichel, 1919; présent au Brésil.
-Euselasia sergia (Godman &amp; Salvin, [1885]); présent sur la côte est des USA, au Mexique, à Panama, au Guatemala et au Costa Rica.
+Euselasia sergia (Godman &amp; Salvin, ); présent sur la côte est des USA, au Mexique, à Panama, au Guatemala et au Costa Rica.
 Euselasia subargentea (Lathy, 1904); au Costa Rica et en Colombie.
 Euselasia tarinta (Schaus, 1902); présent en Colombie.
 Euselasia teleclus (Stoll, 1787); présent en Guyane, au Surinam et en  Équateur.
@@ -731,10 +749,10 @@
 Euselasia thucydides (Fabricius, 1793); présent au Brésil.
 Euselasia thusnelda Möschler, 1883; présent au Surinam.
 Euselasia toppini Sharpe, 1915; présent en Colombie, en Bolivie, au Brésil et au Pérou.
-Euselasia uria (Hewitson, [1853]); présent au Brésil.
-Euselasia urites (Hewitson, [1853]); présent en Guyane et au Brésil.
-Euselasia utica (Hewitson, [1855]); présent au Brésil.
-Euselasia uzita (Hewitson, [1853]); présent en Guyane, Guyana, au Surinam et au Brésil
+Euselasia uria (Hewitson, ); présent au Brésil.
+Euselasia urites (Hewitson, ); présent en Guyane et au Brésil.
+Euselasia utica (Hewitson, ); présent au Brésil.
+Euselasia uzita (Hewitson, ); présent en Guyane, Guyana, au Surinam et au Brésil
 Euselasia venezolana Seitz, 1913; présent en Guyane, au Venezuela et en Colombie.
 Euselasia violacea Lathy, 1924; en Colombie.
 Euselasia violetta (Bates, 1868); présent au Brésil et en Guyane.
